--- a/config/antiSac/antisac_run2.xlsx
+++ b/config/antiSac/antisac_run2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>left</t>
   </si>
   <si>
-    <t>down</t>
+    <t>up</t>
   </si>
   <si>
-    <t>up</t>
+    <t>down</t>
   </si>
   <si>
     <t>right</t>
@@ -1026,10 +1026,10 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
   </cols>
@@ -1082,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <v>2.575</v>
@@ -1108,7 +1108,7 @@
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <v>4.9</v>
@@ -1128,7 +1128,7 @@
         <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>7.725</v>
@@ -1142,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
         <v>10.55</v>
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>0.75</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2">
         <v>12.375</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2">
         <v>14.45</v>
@@ -1222,13 +1222,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>18.6</v>
@@ -1248,7 +1248,7 @@
         <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2">
         <v>21.425</v>
@@ -1282,13 +1282,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <v>25.575</v>
@@ -1308,7 +1308,7 @@
         <v>1.5</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2">
         <v>27.65</v>
@@ -1368,7 +1368,7 @@
         <v>1.25</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2">
         <v>34.375</v>
@@ -1382,13 +1382,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="2">
         <v>36.95</v>
@@ -1408,7 +1408,7 @@
         <v>1.25</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>39.275</v>
@@ -1469,7 +1469,7 @@
         <v>1.25</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="2">
         <v>45.75</v>
@@ -1489,7 +1489,7 @@
         <v>0.75</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="2">
         <v>48.325</v>
@@ -1503,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <v>1.5</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
         <v>50.4</v>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>1.25</v>
@@ -1543,13 +1543,13 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
         <v>1.5</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
         <v>55.8</v>
